--- a/report/tables/table_21.xlsx
+++ b/report/tables/table_21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\widow_asessment_2025_fork\widow-assessment-update\report\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sulca/Documents/Github/widow-assessment-update/report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F0E52C9-E62C-4DC0-AA15-24BF1C6C8ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A945F6D7-B922-1B44-B2BE-61BC2BB143F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15720" xr2:uid="{DEAB2F6C-895B-4DAD-9001-A1744A11A2B7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{DEAB2F6C-895B-4DAD-9001-A1744A11A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Starting year</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>1916 - 1981, 2011 -</t>
+  </si>
+  <si>
+    <t>HEAD</t>
   </si>
 </sst>
 </file>
@@ -553,18 +556,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AECC11-2F12-4B3D-BE42-EBA007ADF370}">
-  <dimension ref="B2:F37"/>
+  <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -572,12 +580,12 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -585,7 +593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -593,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -601,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -609,12 +617,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -622,7 +630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -630,7 +638,7 @@
         <v>14611</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -638,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -646,7 +654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -654,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -662,12 +670,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -675,7 +683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>17</v>
       </c>
@@ -683,7 +691,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -691,7 +699,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -699,7 +707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -707,7 +715,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>21</v>
       </c>
@@ -715,7 +723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -723,7 +731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -731,7 +739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>24</v>
       </c>
@@ -739,7 +747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -747,7 +755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -755,12 +763,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>28</v>
       </c>
@@ -768,7 +776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -776,7 +784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>30</v>
       </c>
@@ -784,7 +792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>31</v>
       </c>
@@ -792,7 +800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>41</v>
       </c>
@@ -800,7 +808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>32</v>
       </c>
